--- a/学生成绩报告单模板.xlsx
+++ b/学生成绩报告单模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stevezhou/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B06CB6-1E8C-5344-AABB-B7D9B4C0BF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E039CE05-0A77-DA44-8E91-4ED78CCA5943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="680" windowWidth="33660" windowHeight="21660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>姓名</t>
   </si>
@@ -31,33 +31,15 @@
     <t>语文</t>
   </si>
   <si>
-    <t>语文评价结果</t>
-  </si>
-  <si>
     <t>数学</t>
   </si>
   <si>
-    <t>数学评价结果</t>
-  </si>
-  <si>
     <t>英语</t>
   </si>
   <si>
-    <t>英语评价结果</t>
-  </si>
-  <si>
     <t>科学</t>
   </si>
   <si>
-    <t>科学评价结果</t>
-  </si>
-  <si>
-    <t>美术</t>
-  </si>
-  <si>
-    <t>信息技术</t>
-  </si>
-  <si>
     <t>获奖情况</t>
   </si>
   <si>
@@ -76,9 +58,6 @@
     <t>92</t>
   </si>
   <si>
-    <t>良好</t>
-  </si>
-  <si>
     <t>88</t>
   </si>
   <si>
@@ -88,12 +67,6 @@
     <t>85</t>
   </si>
   <si>
-    <t>合格</t>
-  </si>
-  <si>
-    <t>优秀</t>
-  </si>
-  <si>
     <t>三好学生</t>
   </si>
   <si>
@@ -103,9 +76,6 @@
     <t>李四</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>87</t>
   </si>
   <si>
@@ -140,6 +110,10 @@
   </si>
   <si>
     <t>王五同学数学成绩突出，思维敏捷，建议加强文科学习。</t>
+  </si>
+  <si>
+    <t>社会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -526,29 +500,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.83203125" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="3" max="6" width="6.83203125" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" customWidth="1"/>
-    <col min="8" max="9" width="8.83203125" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" customWidth="1"/>
-    <col min="11" max="11" width="25.83203125" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" customWidth="1"/>
-    <col min="13" max="14" width="8.83203125" customWidth="1"/>
-    <col min="15" max="15" width="20.83203125" customWidth="1"/>
-    <col min="16" max="16" width="12.83203125" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" customWidth="1"/>
+    <col min="3" max="4" width="6.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="6" max="9" width="8.83203125" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -568,169 +538,116 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
+      <c r="G2">
+        <v>60</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1"/>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="G3">
+        <v>70</v>
+      </c>
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="I3" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="N2" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
+      <c r="G4">
+        <v>88</v>
       </c>
       <c r="H4" t="s">
         <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:O1 A4:O4 A3:E3 K3:N3 A2:N2 G3:I3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C1 A4:C4 A3:C3 H3:I3 A2:C2 E3 D1 D4 D3 D2 E1 E4 E2 F3 F1 F4 F2 H1:J1 H4:J4 H2:I2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>